--- a/Chart Data.xlsx
+++ b/Chart Data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,9 +28,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
 </sst>
 </file>
@@ -79,6 +92,1999 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0486392674329088"/>
+          <c:y val="0.12962962962963"/>
+          <c:w val="0.929062276306371"/>
+          <c:h val="0.740412474482356"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1597309584"/>
+        <c:axId val="1597310736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1597309584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1597310736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1597310736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1597309584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.421091017139153"/>
+          <c:y val="0.0431430446194226"/>
+          <c:w val="0.259018516767737"/>
+          <c:h val="0.0542388451443569"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>986.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>884.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>567.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -391,5 +2397,62 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>